--- a/SchedulingData/static6/pso/scheduling1_6.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>82.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>24.96</v>
@@ -481,97 +481,97 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>75.54000000000001</v>
+        <v>77.84</v>
       </c>
       <c r="E3" t="n">
-        <v>27.096</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>78.09999999999999</v>
+        <v>54.76</v>
       </c>
       <c r="E4" t="n">
-        <v>26.32</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>78.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>166.34</v>
+        <v>43.1</v>
       </c>
       <c r="E5" t="n">
-        <v>23.096</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>77.84</v>
       </c>
       <c r="D6" t="n">
-        <v>64.5</v>
+        <v>111.52</v>
       </c>
       <c r="E6" t="n">
-        <v>27.68</v>
+        <v>23.128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>135.64</v>
+        <v>54.9</v>
       </c>
       <c r="E7" t="n">
-        <v>20.736</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="8">
@@ -580,36 +580,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>135.64</v>
+        <v>111.52</v>
       </c>
       <c r="D8" t="n">
-        <v>170.14</v>
+        <v>163.86</v>
       </c>
       <c r="E8" t="n">
-        <v>18.416</v>
+        <v>20.004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>75.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>122.54</v>
+        <v>108.1</v>
       </c>
       <c r="E9" t="n">
-        <v>23.536</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="10">
@@ -618,397 +618,397 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>122.54</v>
+        <v>54.76</v>
       </c>
       <c r="D10" t="n">
-        <v>171.56</v>
+        <v>113.4</v>
       </c>
       <c r="E10" t="n">
-        <v>20.764</v>
+        <v>21.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>170.14</v>
+        <v>43.1</v>
       </c>
       <c r="D11" t="n">
-        <v>212.74</v>
+        <v>122</v>
       </c>
       <c r="E11" t="n">
-        <v>15.296</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>108.1</v>
       </c>
       <c r="D12" t="n">
-        <v>74.95999999999999</v>
+        <v>163.64</v>
       </c>
       <c r="E12" t="n">
-        <v>25.164</v>
+        <v>21.896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64.5</v>
+        <v>54.9</v>
       </c>
       <c r="D13" t="n">
-        <v>116.52</v>
+        <v>113.74</v>
       </c>
       <c r="E13" t="n">
-        <v>25.088</v>
+        <v>21.936</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>74.95999999999999</v>
+        <v>163.64</v>
       </c>
       <c r="D14" t="n">
-        <v>152.22</v>
+        <v>210.78</v>
       </c>
       <c r="E14" t="n">
-        <v>20.068</v>
+        <v>18.312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>171.56</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>229.16</v>
+        <v>156.22</v>
       </c>
       <c r="E15" t="n">
-        <v>17.124</v>
+        <v>20.688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>212.74</v>
+        <v>122</v>
       </c>
       <c r="D16" t="n">
-        <v>299.44</v>
+        <v>185.24</v>
       </c>
       <c r="E16" t="n">
-        <v>11.216</v>
+        <v>18.376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>152.22</v>
+        <v>210.78</v>
       </c>
       <c r="D17" t="n">
-        <v>218.12</v>
+        <v>288.6</v>
       </c>
       <c r="E17" t="n">
-        <v>14.608</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>116.52</v>
+        <v>113.74</v>
       </c>
       <c r="D18" t="n">
-        <v>165.34</v>
+        <v>176.1</v>
       </c>
       <c r="E18" t="n">
-        <v>22.316</v>
+        <v>16.84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>166.34</v>
+        <v>288.6</v>
       </c>
       <c r="D19" t="n">
-        <v>215.6</v>
+        <v>372.7</v>
       </c>
       <c r="E19" t="n">
-        <v>19.3</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>165.34</v>
+        <v>156.22</v>
       </c>
       <c r="D20" t="n">
-        <v>201.72</v>
+        <v>210.32</v>
       </c>
       <c r="E20" t="n">
-        <v>19.808</v>
+        <v>17.388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>229.16</v>
+        <v>163.86</v>
       </c>
       <c r="D21" t="n">
-        <v>299.8</v>
+        <v>221.36</v>
       </c>
       <c r="E21" t="n">
-        <v>12.7</v>
+        <v>16.364</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>299.44</v>
+        <v>176.1</v>
       </c>
       <c r="D22" t="n">
-        <v>342.66</v>
+        <v>221.34</v>
       </c>
       <c r="E22" t="n">
-        <v>8.023999999999999</v>
+        <v>13.936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>201.72</v>
+        <v>221.34</v>
       </c>
       <c r="D23" t="n">
-        <v>259.06</v>
+        <v>268.34</v>
       </c>
       <c r="E23" t="n">
-        <v>16.684</v>
+        <v>10.376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>215.6</v>
+        <v>221.36</v>
       </c>
       <c r="D24" t="n">
-        <v>304.9</v>
+        <v>284.58</v>
       </c>
       <c r="E24" t="n">
-        <v>14.5</v>
+        <v>12.152</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>299.8</v>
+        <v>210.32</v>
       </c>
       <c r="D25" t="n">
-        <v>341.34</v>
+        <v>265.16</v>
       </c>
       <c r="E25" t="n">
-        <v>9.676</v>
+        <v>13.524</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>342.66</v>
+        <v>185.24</v>
       </c>
       <c r="D26" t="n">
-        <v>396.44</v>
+        <v>259.6</v>
       </c>
       <c r="E26" t="n">
-        <v>4.776</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>265.16</v>
       </c>
       <c r="D27" t="n">
-        <v>82.84</v>
+        <v>339.08</v>
       </c>
       <c r="E27" t="n">
-        <v>25.856</v>
+        <v>10.752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>82.84</v>
+        <v>113.4</v>
       </c>
       <c r="D28" t="n">
-        <v>156.64</v>
+        <v>170</v>
       </c>
       <c r="E28" t="n">
-        <v>22.556</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>341.34</v>
+        <v>268.34</v>
       </c>
       <c r="D29" t="n">
-        <v>420.24</v>
+        <v>321.94</v>
       </c>
       <c r="E29" t="n">
-        <v>4.396</v>
+        <v>7.616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>156.64</v>
+        <v>170</v>
       </c>
       <c r="D30" t="n">
-        <v>210.94</v>
+        <v>240.8</v>
       </c>
       <c r="E30" t="n">
-        <v>18.756</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="31">
@@ -1017,131 +1017,131 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>218.12</v>
+        <v>259.6</v>
       </c>
       <c r="D31" t="n">
-        <v>262.02</v>
+        <v>322.82</v>
       </c>
       <c r="E31" t="n">
-        <v>11.848</v>
+        <v>10.348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>262.02</v>
+        <v>240.8</v>
       </c>
       <c r="D32" t="n">
-        <v>334.64</v>
+        <v>304.34</v>
       </c>
       <c r="E32" t="n">
-        <v>6.696</v>
+        <v>9.756</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>420.24</v>
+        <v>322.82</v>
       </c>
       <c r="D33" t="n">
-        <v>482.84</v>
+        <v>387.22</v>
       </c>
       <c r="E33" t="n">
-        <v>0.736</v>
+        <v>8.028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>482.84</v>
+        <v>372.7</v>
       </c>
       <c r="D34" t="n">
-        <v>548.37</v>
+        <v>438.74</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>5.336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>259.06</v>
+        <v>321.94</v>
       </c>
       <c r="D35" t="n">
-        <v>316.42</v>
+        <v>361.06</v>
       </c>
       <c r="E35" t="n">
-        <v>11.588</v>
+        <v>4.844</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>210.94</v>
+        <v>387.22</v>
       </c>
       <c r="D36" t="n">
-        <v>250.32</v>
+        <v>448.66</v>
       </c>
       <c r="E36" t="n">
-        <v>15.948</v>
+        <v>4.024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>396.44</v>
+        <v>304.34</v>
       </c>
       <c r="D37" t="n">
-        <v>470.18</v>
+        <v>381.7</v>
       </c>
       <c r="E37" t="n">
-        <v>0.512</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="38">
@@ -1150,226 +1150,226 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>470.18</v>
+        <v>284.58</v>
       </c>
       <c r="D38" t="n">
-        <v>555.86</v>
+        <v>330.76</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>9.644</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>250.32</v>
+        <v>330.76</v>
       </c>
       <c r="D39" t="n">
-        <v>333.54</v>
+        <v>378.76</v>
       </c>
       <c r="E39" t="n">
-        <v>11.736</v>
+        <v>5.984</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>316.42</v>
+        <v>448.66</v>
       </c>
       <c r="D40" t="n">
-        <v>379.58</v>
+        <v>541.91</v>
       </c>
       <c r="E40" t="n">
-        <v>7.892</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>304.9</v>
+        <v>541.91</v>
       </c>
       <c r="D41" t="n">
-        <v>354.84</v>
+        <v>604.51</v>
       </c>
       <c r="E41" t="n">
-        <v>10.636</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>555.86</v>
+        <v>361.06</v>
       </c>
       <c r="D42" t="n">
-        <v>623.46</v>
+        <v>452.76</v>
       </c>
       <c r="E42" t="n">
-        <v>25.44</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>354.84</v>
+        <v>452.76</v>
       </c>
       <c r="D43" t="n">
-        <v>411.78</v>
+        <v>552.63</v>
       </c>
       <c r="E43" t="n">
-        <v>7.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>411.78</v>
+        <v>378.76</v>
       </c>
       <c r="D44" t="n">
-        <v>484.06</v>
+        <v>447.04</v>
       </c>
       <c r="E44" t="n">
-        <v>3.464</v>
+        <v>2.736</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>548.37</v>
+        <v>552.63</v>
       </c>
       <c r="D45" t="n">
-        <v>587.61</v>
+        <v>610.15</v>
       </c>
       <c r="E45" t="n">
-        <v>26.776</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>334.64</v>
+        <v>438.74</v>
       </c>
       <c r="D46" t="n">
-        <v>395.48</v>
+        <v>502.34</v>
       </c>
       <c r="E46" t="n">
-        <v>3.212</v>
+        <v>1.616</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>333.54</v>
+        <v>502.34</v>
       </c>
       <c r="D47" t="n">
-        <v>391.92</v>
+        <v>605.41</v>
       </c>
       <c r="E47" t="n">
-        <v>9.007999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>379.58</v>
+        <v>339.08</v>
       </c>
       <c r="D48" t="n">
-        <v>432.98</v>
+        <v>387.34</v>
       </c>
       <c r="E48" t="n">
-        <v>4.172</v>
+        <v>7.056</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>391.92</v>
+        <v>387.34</v>
       </c>
       <c r="D49" t="n">
-        <v>465.74</v>
+        <v>463.08</v>
       </c>
       <c r="E49" t="n">
-        <v>4.736</v>
+        <v>3.572</v>
       </c>
     </row>
     <row r="50">
@@ -1378,55 +1378,112 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>587.61</v>
+        <v>381.7</v>
       </c>
       <c r="D50" t="n">
-        <v>639.41</v>
+        <v>453.78</v>
       </c>
       <c r="E50" t="n">
-        <v>23.236</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>432.98</v>
+        <v>453.78</v>
       </c>
       <c r="D51" t="n">
-        <v>489.42</v>
+        <v>553.14</v>
       </c>
       <c r="E51" t="n">
-        <v>0.168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>489.42</v>
+        <v>463.08</v>
       </c>
       <c r="D52" t="n">
-        <v>590.38</v>
+        <v>497.58</v>
       </c>
       <c r="E52" t="n">
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>497.58</v>
+      </c>
+      <c r="D53" t="n">
+        <v>566.98</v>
+      </c>
+      <c r="E53" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>447.04</v>
+      </c>
+      <c r="D54" t="n">
+        <v>537.97</v>
+      </c>
+      <c r="E54" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>pond56</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>537.97</v>
+      </c>
+      <c r="D55" t="n">
+        <v>578.05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>27.192</v>
       </c>
     </row>
   </sheetData>
